--- a/Meat_Store/Оновлення меню.xlsx
+++ b/Meat_Store/Оновлення меню.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Illia Stetsenko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A75D9-B757-43B4-B136-69EEEDFC0D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E1DE9A-A27F-4301-97D0-A9126BB9A25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Курятина" sheetId="1" r:id="rId1"/>
     <sheet name="Яловичина" sheetId="3" r:id="rId2"/>
     <sheet name="Свинина" sheetId="2" r:id="rId3"/>
+    <sheet name="Баранина" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Копчена куряча грудка</t>
   </si>
@@ -96,13 +97,37 @@
   </si>
   <si>
     <t>Закінчився</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Приготовлена баранина</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1603640800116-835545a643ce?ixlib=rb-1.2.1&amp;ixid=MnwxMjA3fDB8MHxzZWFyY2h8MTh8fG11dHRvbnxlbnwwfHwwfHw%3D&amp;auto=format&amp;fit=crop&amp;w=500&amp;q=60</t>
+  </si>
+  <si>
+    <t>Корейка</t>
+  </si>
+  <si>
+    <t>Закінчилась</t>
+  </si>
+  <si>
+    <t>https://img.povar.ru/main/ac/05/a0/63/baranya_koreika_na_kosti-297463.jpg</t>
+  </si>
+  <si>
+    <t>Бараняча корейка зі смачним маринадом та добре підібраними спеціями</t>
+  </si>
+  <si>
+    <t>Свіжа бараняча корейка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +141,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,9 +236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,7 +656,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,10 +730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD693AFE-A1E3-4DB6-B726-1985B7805F15}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +747,7 @@
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -727,9 +772,8 @@
       <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -743,7 +787,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -757,7 +801,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -771,7 +815,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -785,7 +829,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -814,4 +858,108 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333E2A71-D35F-488F-B057-72065AC4E826}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>500</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CB6E5C57-02F8-4D3A-929A-106C1857FA5C}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{B59CF842-BC89-4738-BEC1-824D8C99D995}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>